--- a/tablas/heart-paramXGB.xlsx
+++ b/tablas/heart-paramXGB.xlsx
@@ -135,40 +135,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.0</v>
+        <v>447.0</v>
       </c>
       <c r="C2" t="n">
-        <v>142.0</v>
+        <v>76.0</v>
       </c>
       <c r="D2" t="n">
-        <v>366.0</v>
+        <v>334.0</v>
       </c>
       <c r="E2" t="n">
-        <v>117.0</v>
+        <v>61.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6735632183908046</v>
+        <v>0.8546845124282982</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7146341463414634</v>
+        <v>0.8799212598425197</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7204724409448819</v>
+        <v>0.8146341463414634</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6934911242603551</v>
+        <v>0.8671193016488845</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7178649237472767</v>
+        <v>0.8507625272331155</v>
       </c>
       <c r="K2" t="n">
-        <v>0.43256246867616527</v>
+        <v>0.6970151051579176</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7175473557871954</v>
+        <v>0.8466486309913434</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7807134626464388</v>
+        <v>0.9065920875744191</v>
       </c>
     </row>
     <row r="3">
@@ -178,40 +178,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296.0</v>
+        <v>445.0</v>
       </c>
       <c r="C3" t="n">
-        <v>138.0</v>
+        <v>75.0</v>
       </c>
       <c r="D3" t="n">
-        <v>370.0</v>
+        <v>335.0</v>
       </c>
       <c r="E3" t="n">
-        <v>114.0</v>
+        <v>63.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6820276497695853</v>
+        <v>0.8557692307692307</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7219512195121951</v>
+        <v>0.8759842519685039</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7283464566929134</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7014218009478673</v>
+        <v>0.8657587548638133</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7254901960784313</v>
+        <v>0.8496732026143791</v>
       </c>
       <c r="K3" t="n">
-        <v>0.44776945993430595</v>
+        <v>0.6950195481771084</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7251417879538008</v>
+        <v>0.846016093385314</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7817265219896317</v>
+        <v>0.9066208949491077</v>
       </c>
     </row>
     <row r="4">
@@ -221,40 +221,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.0</v>
+        <v>445.0</v>
       </c>
       <c r="C4" t="n">
-        <v>137.0</v>
+        <v>74.0</v>
       </c>
       <c r="D4" t="n">
-        <v>371.0</v>
+        <v>336.0</v>
       </c>
       <c r="E4" t="n">
-        <v>114.0</v>
+        <v>63.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6836027713625866</v>
+        <v>0.8574181117533719</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7219512195121951</v>
+        <v>0.8759842519685039</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7303149606299213</v>
+        <v>0.8195121951219512</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7022538552787664</v>
+        <v>0.866601752677702</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7265795206971678</v>
+        <v>0.8507625272331155</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4498321450572331</v>
+        <v>0.697300966106835</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7261210480730967</v>
+        <v>0.8472778630549538</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7835341847512983</v>
+        <v>0.906808142884579</v>
       </c>
     </row>
     <row r="5">
@@ -264,40 +264,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.0</v>
+        <v>445.0</v>
       </c>
       <c r="C5" t="n">
-        <v>133.0</v>
+        <v>74.0</v>
       </c>
       <c r="D5" t="n">
-        <v>375.0</v>
+        <v>336.0</v>
       </c>
       <c r="E5" t="n">
-        <v>113.0</v>
+        <v>63.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6906976744186046</v>
+        <v>0.8574181117533719</v>
       </c>
       <c r="G5" t="n">
-        <v>0.724390243902439</v>
+        <v>0.8759842519685039</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7381889763779528</v>
+        <v>0.8195121951219512</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7071428571428571</v>
+        <v>0.866601752677702</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7320261437908496</v>
+        <v>0.8507625272331155</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4604128834942176</v>
+        <v>0.697300966106835</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7312570633125651</v>
+        <v>0.8472778630549538</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7880761474937602</v>
+        <v>0.906721720760514</v>
       </c>
     </row>
     <row r="6">
@@ -307,40 +307,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300.0</v>
+        <v>445.0</v>
       </c>
       <c r="C6" t="n">
-        <v>132.0</v>
+        <v>74.0</v>
       </c>
       <c r="D6" t="n">
-        <v>376.0</v>
+        <v>336.0</v>
       </c>
       <c r="E6" t="n">
-        <v>110.0</v>
+        <v>63.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.8574181117533719</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.8759842519685039</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7401574803149606</v>
+        <v>0.8195121951219512</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7125890736342042</v>
+        <v>0.866601752677702</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7363834422657952</v>
+        <v>0.8507625272331155</v>
       </c>
       <c r="K6" t="n">
-        <v>0.46943513025535205</v>
+        <v>0.697300966106835</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7359202702283026</v>
+        <v>0.8472778630549538</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7921139811791843</v>
+        <v>0.9067169195313992</v>
       </c>
     </row>
   </sheetData>
